--- a/pro-LGBTQbills-test.xlsx
+++ b/pro-LGBTQbills-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeaton\Documents\GitHub\anti-trans-legislation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA1041-3204-4A85-B49F-C5526D55797C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0843C61B-A6C9-4366-840E-6998B7DCCC03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18980" windowHeight="5660" xr2:uid="{E8C65B1E-D279-41F0-8CF3-6A84865F05E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Illinois</t>
   </si>
@@ -91,6 +91,592 @@
   </si>
   <si>
     <t>Change Hash</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>||||||
+*Public Act 103-0022*
+HB1596 Enrolled	LRB103 25063 WGH 51398 b
+||
+|||AN ACT concerning children.|||
+||*|Be it enacted by the People of the State of Illinois, |*
+*|represented in the General Assembly:|*||||
+|||Section 5. ||The Children and Family Services Act is amended |
+|by changing Sections 4b, 5, 5c, 5d, 7, 7.3, 7.3a, 7.4, 7.5, |
+|7.8, 8, 8a, 8b, 9.3, 9.5, 17, 21, 35.5, 35.6, and 35.9 and by |
+|changing Section 5.26 (as added by Public Act 102-763) as |
+|follows:| ||||
+|||(20 ILCS 505/4b)|||||
+|||Sec. 4b. ||Youth transitional housing programs. |
+|||(a) The Department may license youth transitional housing |
+|programs. For the purposes of this Section, "youth |
+|transitional housing program" means a program that provides |
+|shelter or housing and services to eligible homeless minors. |
+|Services provided by the youth transitional housing program |
+|may include a service assessment, individualized case |
+|management, and life skills training. The Department shall |
+|adopt rules governing the licensure of those programs.|||
+|||(b) A homeless minor is eligible if:|
+|||||(1) |_|the homeless minor|_|||he or she||is at least 16 years |
+|of age but less than 18 years of age;|
+|||||(2) the homeless minor lacks a regular, fixed, and |
+|adequate place to live;|
+|||||(3) the homeless minor is living apart from |_|the |_
+_|minor's|_|||his or her||parent or guardian;|
+|||||(4) the homeless minor desires to participate in a |
+|licensed youth transitional housing program;|
+|||||(5) a licensed youth transitional housing program is |
+|able to provide housing and services;|
+|||||(6) the licensed youth transitional housing program |
+|has determined the homeless minor is eligible for the |
+|youth transitional housing program; and |
+|||||(7) either the homeless minor's parent has consented |
+|to the transitional housing program or the minor has |
+|consented after:|
+|||||||(A) a comprehensive community based youth service |
+|agency has provided crisis intervention services to |
+|the homeless minor under Section 3-5 of the Juvenile |
+|Court Act of 1987 and the agency was unable to achieve |
+|either family reunification or an alternate living |
+|arrangement;|
+|||||||(B) the Department has not filed a petition |
+|alleging that the homeless minor is abused or |
+|neglected and the minor does not require placement in |
+|a residential facility, as defined by 89 Ill. Adm. |
+|Code 301.20;|
+|||||||(C) the youth transitional housing program or |
+|comprehensive community based youth services agency |
+|has made reasonable efforts and documented its |
+|attempts to notify the homeless minor's parent or |
+|guardian of the homeless minor's intent to enter the |
+|youth transitional housing program.|
+|||(d) If an eligible homeless minor voluntarily leaves or is |
+|dismissed from a youth transitional housing program prior to |
+|reaching the age of majority, the youth transitional housing |
+|program agency shall contact the comprehensive community based |
+|youth services agency that provided crisis intervention |
+|services to the eligible homeless minor under subdivision |
+|(b)(7)(A) of this Section to assist in finding an alternative |
+|placement for the minor. If the eligible homeless minor leaves |
+|the program before beginning services with the comprehensive |
+|community based youth service provider, then the youth |
+|transitional housing program shall notify the local law |
+|enforcement authorities and make reasonable efforts to notify |
+|the minor's parent or guardian that the minor has left the |
+|program.|
+|||(e) Nothing in this Section shall be construed to require |
+|an eligible homeless minor to acquire the consent of a parent, |
+|guardian, or custodian to consent to a youth transitional |
+|housing program. An eligible homeless minor is deemed to have |
+|the legal capacity to consent to receiving housing and |
+|services from a licensed youth transitional housing program.|
+|||(f) The purpose of this Section is to provide a means by |
+|which an eligible homeless minor may have the authority to |
+|consent, independent of |_|the homeless minor's|_|||his or her|||
+|parents or guardian, to receive housing and services as |
+|described in subsection (a) of this Section provided by a |
+|licensed youth transitional housing program that has the |
+|ability to serve the homeless minor. This Section is not |
+|intended to interfere with the integrity of the family or the |
+|rights of parents and their children. This Section does not |
+|limit or exclude any means by which a minor may become |
+|emancipated.|
+|(Source: P.A. 100-162, eff. 1-1-18||.)||| ||
+|||(20 ILCS 505/5)||||(from Ch. 23, par. 5005)|||||||
+|||Sec. 5. ||Direct child welfare services; Department of |
+|Children and Family Services. ||To provide direct child welfare |
+|services when not available through other public or private |
+|child care or program facilities.|||
+|||(a) For purposes of this Section:|||
+|||||(1) "Children" means persons found within the State |
+|who are under the age of 18 years. The term also includes |
+|persons under age 21 who:|||
+|||||||(A) were committed to the Department pursuant to |
+|the Juvenile Court Act or the Juvenile Court Act of |
+|1987 and who continue under the jurisdiction of the |
+|court; or|||
+|||||||(B) were accepted for care, service and training |
+|by the Department prior to the age of 18 and whose best |
+|interest in the discretion of the Department would be |
+|served by continuing that care, service and training |
+|because of severe emotional disturbances, physical |
+|disability, social adjustment or any combination |
+|thereof, or because of the need to complete an |
+|educational or vocational training program.|||
+|||||(2) "Homeless youth" means persons found within the |
+|State who are under the age of 19, are not in a safe and |
+|stable living situation and cannot be reunited with their |
+|families.|||
+|||||(3) "Child welfare services" means public social |
+|services which are directed toward the accomplishment of |
+|the following purposes:|||
+|||||||(A) protecting and promoting the health, safety |
+|and welfare of children, including homeless, |
+|dependent, or neglected children;|||
+|||||||(B) remedying, or assisting in the solution of |
+|problems which may result in, the neglect, abuse, |
+|exploitation, or delinquency of children;|||
+|||||||(C) preventing the unnecessary separation of |
+|children from their families by identifying family |
+|problems, assisting families in resolving their |
+|problems, and preventing the breakup of the family |
+|where the prevention of child removal is desirable and |
+|possible when the child can be cared for at home |
+|without endangering the child's health and safety;|||
+|||||||(D) restoring to their families children who have |
+|been removed, by the provision of services to the |
+|child and the families when the child can be cared for |
+|at home without endangering the child's health and |
+|safety;|||
+|||||||(E) placing children in suitable adoptive homes, |
+|in cases where restoration to the |_|birth|_|||biological|||
+|family is not safe, possible, or appropriate;|||
+|||||||(F) assuring safe and adequate care of children |
+|away from their homes, in cases where the child cannot |
+|be returned home or cannot be placed for adoption. At |
+|the time of placement, the Department shall consider |
+|concurrent planning, as described in subsection (l-1) |
+|of this Section so that permanency may occur at the |
+|earliest opportunity. Consideration should be given so |
+|that if reunification fails or is delayed, the |
+|placement made is the best available placement to |
+|provide permanency for the child;|||
+|||||||(G) (blank);|||
+|||||||(H) (blank); and|||
+|||||||(I) placing and maintaining children in facilities |
+|that provide separate living quarters for children |
+|under the age of 18 and for children 18 years of age |
+|and older, unless a child 18 years of age is in the |
+|last year of high school education or vocational |
+|training, in an approved individual or group treatment |
+|program, in a licensed shelter facility, or secure |
+|child care facility. The Department is not required to |
+|place or maintain children:|||
+|||||||||(i) who are in a foster home, or|||
+|||||||||(ii) who are persons with a developmental |
+|disability, as defined in the Mental Health and |
+|Developmental Disabilities Code, or|||
+|||||||||(iii) who are female children who are |
+|pregnant, pregnant and parenting, or parenting, or|||
+|||||||||(iv) who are siblings, in facilities that |
+|provide separate living quarters for children 18 |
+|years of age and older and for children under 18 |
+|years of age.|||
+|||(b) (Blank).|||
+|||(c) The Department shall establish and maintain |
+|tax-supported child welfare services and extend and seek to |
+|improve voluntary services throughout the State, to the end |
+|that services and care shall be available on an equal basis |
+|throughout the State to children requiring such services.|||
+|||(d) The Director may authorize advance disbursements for |
+|any new program initiative to any agency contracting with the |
+|Department. As a prerequisite for an advance disbursement, the |
+|contractor must post a surety bond in the amount of the advance |
+|disbursement and have a purchase of service contract approved |
+|by the Department. The Department may pay up to 2 months |
+|operational expenses in advance. The amount of the advance |
+|disbursement shall be prorated over the life of the contract |
+|or the remaining months of the fiscal year, whichever is less, |
+|and the installment amount shall then be deducted from future |
+|bills. Advance disbursement authorizations for new initiatives |
+|shall not be made to any agency after that agency has operated |
+|during 2 consecutive fiscal years. The requirements of this |
+|Section concerning advance disbursements shall not apply with |
+|respect to the following: payments to local public agencies |
+|for child day care services as authorized by Section 5a of this |
+|Act; and youth service programs receiving grant funds under |
+|Section 17a-4.|||
+|||(e) (Blank).|||
+|||(f) (Blank).|||
+|||(g) The Department shall establish rules and regulations |
+|concerning its operation of programs designed to meet the |
+|goals of child safety and protection, family preservation, |
+|family reunification, and adoption, including, but not limited |
+|to:|||
+|||||(1) adoption;|||
+|||||(2) foster care;|||
+|||||(3) family counseling;|||
+|||||(4) protective services;|||
+|||||(5) (blank);|||
+|||||(6) homemaker service;|||
+|||||(7) return of runaway children;|||
+|||||(8) (blank);|||
+|||||(9) placement under Section 5-7 of the Juvenile Court |
+|Act or Section 2-27, 3-28, 4-25, or 5-740 of the Juvenile |
+|Court Act of 1987 in accordance with the federal Adoption |
+|Assistance and Child Welfare Act of 1980; and|||||
+|||||(10) interstate services.|||
+|||Rules and regulations established by the Department shall |
+|include provisions for training Department staff and the staff |
+|of Department grantees, through contracts with other agencies |
+|or resources, in screening techniques to identify substance |
+|use disorders, as defined in the Substance Use Disorder Act, |
+|approved by the Department of Human Services, as a successor |
+|to the Department of Alcoholism and Substance Abuse, for the |
+|purpose of identifying children and adults who should be |
+|referred for an assessment at an organization appropriately |
+|licensed by the Department of Human Services for substance use |
+|disorder treatment.|||
+|||(h) If the Department finds that there is no appropriate |
+|program or facility within or available to the Department for |
+|a youth in care and that no licensed private facility has an |
+|adequate and appropriate program or none agrees to accept the |
+|youth in care, the Department shall create an appropriate |
+|individualized, program-oriented plan for such youth in care. |
+|The plan may be developed within the Department or through |
+|purchase of services by the Department to the extent that it is |
+|within its statutory authority to do.|||
+|||(i) Service programs shall be available throughout the |
+|State and shall include but not be limited to the following |
+|services:|||
+|||||(1) case management;|||
+|||||(2) homemakers;|||
+|||||(3) counseling;|||
+|||||(4) parent education;|||
+|||||(5) day care; and|||
+|||||(6) emergency assistance and advocacy.|||
+|||In addition, the following services may be made available |
+|to assess and meet the needs of children and families:|||
+|||||(1) comprehensive family-based services;|||
+|||||(2) assessments;|||
+|||||(3) respite care; and|||
+|||||(4) in-home health services.|||
+|||The Department shall provide transportation for any of the |
+|services it makes available to children or families or for |
+|which it refers children or families.|||
+|||(j) The Department may provide categories of financial |
+|assistance and education assistance grants, and shall |
+|establish rules and regulations concerning the assistance and |
+|grants, to persons who adopt children with physical or mental |
+|disabilities, children who are older, or other hard-to-place |
+|children who (i) immediately prior to their adoption were |
+|youth in care or (ii) were determined eligible for financial |
+|assistance with respect to a prior adoption and who become |
+|available for adoption because the prior adoption has been |
+|dissolved and the parental rights of the adoptive parents have |
+|been terminated or because the child's adoptive parents have |
+|died. The Department may continue to provide financial |
+|assistance and education assistance grants for a child who was |
+|determined eligible for financial assistance under this |
+|subsection (j) in the interim period beginning when the |
+|child's adoptive parents died and ending with the finalization |
+|of the new adoption of the child by another adoptive parent or |
+|parents. The Department may also provide categories of |
+|financial assistance and education assistance grants, and |
+|shall establish rules and regulations for the assistance and |
+|grants, to persons appointed guardian of the person under |
+|Section 5-7 of the Juvenile Court Act or Section 2-27, 3-28, |
+|4-25, or 5-740 of the Juvenile Court Act of 1987 for children |
+|who were youth in care for 12 months immediately prior to the |
+|appointment of the guardian.|||
+|||The amount of assistance may vary, depending upon the |
+|needs of the child and the adoptive parents, as set forth in |
+|the annual assistance agreement. Special purpose grants are |
+|allowed where the child requires special service but such |
+|costs may not exceed the amounts which similar services would |
+|cost the Department if it were to provide or secure them as |
+|guardian of the child.|||
+|||Any financial assistance provided under this subsection is |
+|inalienable by assignment, sale, execution, attachment, |
+|garnishment, or any other remedy for recovery or collection of |
+|a judgment or debt.|||
+|||(j-5) The Department shall not deny or delay the placement |
+|of a child for adoption if an approved family is available |
+|either outside of the Department region handling the case, or |
+|outside of the State of Illinois.|||
+|||(k) The Department shall accept for care and training any |
+|child who has been adjudicated neglected or abused, or |
+|dependent committed to it pursuant to the Juvenile Court Act |
+|or the Juvenile Court Act of 1987.|||
+|||(l) The Department shall offer family preservation |
+|services, as defined in Section 8.2 of the Abused and |
+|Neglected Child Reporting Act, to help families, including |
+|adoptive and extended families. Family preservation services |
+|shall be offered (i) to prevent the placement of children in |
+|substitute care when the children can be cared for at home or |
+|in the custody of the person responsible for the children's |
+|welfare, (ii) to reunite children with their families, or |
+|(iii) to maintain an adoptive placement. Family preservation |
+|services shall only be offered when doing so will not endanger |
+|the children's health or safety. With respect to children who |
+|are in substitute care pursuant to the Juvenile Court Act of |
+|1987, family preservation services shall not be offered if a |
+|goal other than those of subdivisions (A), (B), or (B-1) of |
+|subsection (2) of Section 2-28 of that Act has been set, except |
+|that reunification services may be offered as provided in |
+|paragraph (F) of subsection (2) of Section 2-28 of that Act. |
+|Nothing in this paragraph shall be construed to create a |
+|private right of action or claim on the part of any individual |
+|or child welfare agency, except that when a child is the |
+|subject of an action under Article II of the Juvenile Court Act |
+|of 1987 and the child's service plan calls for services to |
+|facilitate achievement of the permanency goal, the court |
+|hearing the action under Article II of the Juvenile Court Act |
+|of 1987 may order the Department to provide the services set |
+|out in the plan, if those services are not provided with |
+|reasonable promptness and if those services are available.|||
+|||The Department shall notify the child and |_|the child's|_|||his|||
+|family of the Department's responsibility to offer and provide |
+|family preservation services as identified in the service |
+|plan. The child and |_|the child's|_|||his||family shall be eligible |
+|for services as soon as the report is determined to be |
+|"indicated". The Department may offer services to any child or |
+|family with respect to whom a report of suspected child abuse |
+|or neglect has been filed, prior to concluding its |
+|investigation under Section 7.12 of the Abused and Neglected |
+|Child Reporting Act. However, the child's or family's |
+|willingness to accept services shall not be considered in the |
+|investigation. The Department may also provide services to any |
+|child or family who is the subject of any report of suspected |
+|child abuse or neglect or may refer such child or family to |
+|services available from other agencies in the community, even |
+|if the report is determined to be unfounded, if the conditions |
+|in the child's or family's home are reasonably likely to |
+|subject the child or family to future reports of suspected |
+|child abuse or neglect. Acceptance of such services shall be |
+|voluntary. The Department may also provide services to any |
+|child or family after completion of a family assessment, as an |
+|alternative to an investigation, as provided under the |
+|"differential response program" provided for in subsection |
+|(a-5) of Section 7.4 of the Abused and Neglected Child |
+|Reporting Act.|||
+|||The Department may, at its discretion except for those |
+|children also adjudicated neglected or dependent, accept for |
+|care and training any child who has been adjudicated addicted, |
+|as a truant minor in need of supervision or as a minor |
+|requiring authoritative intervention, under the Juvenile Court |
+|Act or the Juvenile Court Act of 1987, but no such child shall |
+|be committed to the Department by any court without the |
+|approval of the Department. On and after January 1, 2015 (the |
+|effective date of Public Act 98-803) and before January 1, |
+|2017, a minor charged with a criminal offense under the |
+|Criminal Code of 1961 or the Criminal Code of 2012 or |
+|adjudicated delinquent shall not be placed in the custody of |
+|or committed to the Department by any court, except (i) a minor |
+|less than 16 years of age committed to the Department under |
+|Section 5-710 of the Juvenile Court Act of 1987, (ii) a minor |
+|for whom an independent basis of abuse, neglect, or dependency |
+|exists, which must be defined by departmental rule, or (iii) a |
+|minor for whom the court has granted a supplemental petition |
+|to reinstate wardship pursuant to subsection (2) of Section |
+|2-33 of the Juvenile Court Act of 1987. On and after January 1, |
+|2017, a minor charged with a criminal offense under the |
+|Criminal Code of 1961 or the Criminal Code of 2012 or |
+|adjudicated delinquent shall not be placed in the custody of |
+|or committed to the Department by any court, except (i) a minor |
+|less than 15 years of age committed to the Department under |
+|Section 5-710 of the Juvenile Court Act of 1987, ii) a minor |
+|for whom an independent basis of abuse, neglect, or dependency |
+|exists, which must be defined by departmental rule, or (iii) a |
+|minor for whom the court has granted a supplemental petition |
+|to reinstate wardship pursuant to subsection (2) of Section |
+|2-33 of the Juvenile Court Act of 1987. An independent basis |
+|exists when the allegations or adjudication of abuse, neglect, |
+|or dependency do not arise from the same facts, incident, or |
+|circumstances which give rise to a charge or adjudication of |
+|delinquency. The Department shall assign a caseworker to |
+|attend any hearing involving a youth in the care and custody of |
+|the Department who is placed on aftercare release, including |
+|hearings involving sanctions for violation of aftercare |
+|release conditions and aftercare release revocation hearings. |||
+|||As soon as is possible after August 7, 2009 (the effective |
+|date of Public Act 96-134), the Department shall develop and |
+|implement a special program of family preservation services to |
+|support intact, foster, and adoptive families who are |
+|experiencing extreme hardships due to the difficulty and |
+|stress of caring for a child who has been diagnosed with a |
+|pervasive developmental disorder if the Department determines |
+|that those services are necessary to ensure the health and |
+|safety of the child. The Department may offer services to any |
+|family whether or not a report has been filed under the Abused |
+|and Neglected Child Reporting Act. The Department may refer |
+|the child or family to services available from other agencies |
+|in the community if the conditions in the child's or family's |
+|home are reasonably likely to subject the child or family to |
+|future reports of suspected child abuse or neglect. Acceptance |
+|of these services shall be voluntary. The Department shall |
+|develop and implement a public information campaign to alert |
+|health and social service providers and the general public |
+|about these special family preservation services. The nature |
+|and scope of the services offered and the number of families |
+|served under the special program implemented under this |
+|paragraph shall be determined by the level of funding that the |
+|Department annually allocates for this purpose. The term |
+|"pervasive developmental disorder" under this paragraph means |
+|a neurological condition, including, but not limited to, |
+|Asperger's Syndrome and autism, as defined in the most recent |
+|edition of the Diagnostic and Statistical Manual of Mental |
+|Disorders of the American Psychiatric Association.|
+|||(l-1) The |_|General Assembly|_|||legislature||recognizes that the |
+|best interests of the child require that the child be placed in |
+|the most permanent living arrangement as soon as is |
+|practically possible. To achieve this goal, the |_|General |_
+_|Assembly|_|||legislature||directs the Department of Children and |
+|Family Services to conduct concurrent planning so that |
+|permanency may occur at the earliest opportunity. Permanent |
+|living arrangements may include prevention of placement of a |
+|child outside the home of the family when the child can be |
+|cared for at home without endangering the child's health or |
+|safety; reunification with the family, when safe and |
+|appropriate, if temporary placement is necessary; or movement |
+|of the child toward the most permanent living arrangement and |
+|permanent legal status.|||
+|||When determining reasonable efforts to be made with |
+|respect to a child, as described in this subsection, and in |
+|making such reasonable efforts, the child's health and safety |
+|shall be the paramount concern.|||
+|||When a child is placed in foster care, the Department |
+|shall ensure and document that reasonable efforts were made to |
+|prevent or eliminate the need to remove the child from the |
+|child's home. The Department must make reasonable efforts to |
+|reunify the family when temporary placement of the child |
+|occurs unless otherwise required, pursuant to the Juvenile |
+|Court Act of 1987. At any time after the dispositional hearing |
+|where the Department believes that further reunification |
+|services would be ineffective, it may request a finding from |
+|the court that reasonable efforts are no longer appropriate. |
+|The Department is not required to provide further |
+|reunification services after such a finding.|||
+|||A decision to place a child in substitute care shall be |
+|made with considerations of the child's health, safety, and |
+|best interests. At the time of placement, consideration should |
+|also be given so that if reunification fails or is delayed, the |
+|placement made is the best available placement to provide |
+|permanency for the child.|||
+|||The Department shall adopt rules addressing concurrent |
+|planning for reunification and permanency. The Department |
+|shall consider the following factors when determining |
+|appropriateness of concurrent planning:|||
+|||||(1) the likelihood of prompt reunification;|||
+|||||(2) the past history of the family;|||
+|||||(3) the barriers to reunification being addressed by |
+|the family;|||
+|||||(4) the level of cooperation of the family;|||
+|||||(5) the foster parents' willingness to work with the |
+|family to reunite;|||
+|||||(6) the willingness and ability of the foster family |
+|to provide an adoptive home or long-term placement;|||
+|||||(7) the age of the child;|||
+|||||(8) placement of siblings.|||
+|||(m) The Department may assume temporary custody of any |
+|child if:|||
+|||||(1) it has received a written consent to such |
+|temporary custody signed by the parents of the child or by |
+|the parent having custody of the child if the parents are |
+|not living together or by the guardian or custodian of the |
+|child if the child is not in the custody of either parent, |
+|or|||
+|||||(2) the child is found in the State and neither a |
+|parent, guardian nor custodian of the child can be |
+|located.|||
+|If the child is found in |_|the child's|_|||his or her||residence |
+|without a parent, guardian, custodian, or responsible |
+|caretaker, the Department may, instead of removing the child |
+|and assuming temporary custody, place an authorized |
+|representative of the Department in that residence until such |
+|time as a parent, guardian, or custodian enters the home and |
+|expresses a willingness and apparent ability to ensure the |
+|child's health and safety and resume permanent charge of the |
+|child, or until a relative enters the home and is willing and |
+|able to ensure the child's health and safety and assume charge |
+|of the child until a parent, guardian, or custodian enters the |
+|home and expresses such willingness and ability to ensure the |
+|child's safety and resume permanent charge. After a caretaker |
+|has remained in the home for a period not to exceed 12 hours, |
+|the Department must follow those procedures outlined in |
+|Section 2-9, 3-11, 4-8, or 5-415 of the Juvenile Court Act of |
+|1987.|||
+|||The Department shall have the authority, responsibilities |
+|and duties that a legal custodian of the child would have |
+|pursuant to subsection (9) of Section 1-3 of the Juvenile |
+|Court Act of 1987. Whenever a child is taken into temporary |
+|custody pursuant to an investigation under the Abused and |
+|Neglected Child Reporting Act, or pursuant to a referral and |
+|acceptance under the Juvenile Court Act of 1987 of a minor in |
+|limited custody, the Department, during the period of |
+|temporary custody and before the child is brought before a |
+|judicial officer as required by Section 2-9, 3-11, 4-8, or |
+|5-415 of the Juvenile Court Act of 1987, shall have the |
+|authority, responsibilities and duties that a legal custodian |
+|of the child would have under subsection (9) of Section 1-3 of |
+|the Juvenile Court Act of 1987.|||
+|||The Department shall ensure that any child taken into |
+|custody is scheduled for an appointment for a medical |
+|examination.|||
+|||A parent, guardian, or custodian of a child in the |
+|temporary custody of the Department who would have custody of |
+|the child if |_|the child|_|||he||were not in the temporary custody of |
+|the Department may deliver to the Department a signed request |
+|that the Department surrender the temporary custody of the |
+|child. The Department may retain temporary custody of the |
+|child for 10 days after the receipt of the request, during |
+|which period the Department may cause to be filed a petition |
+|pursuant to the Juvenile Court Act of 1987. If a petition is so |
+|filed, the Department shall retain temporary custody of the |
+|child until the court orders otherwise. If a petition is not |
+|filed within the 10-day period, the child shall be surrendered |
+|to the custody of the requesting parent, guardian, or |
+|custodian not later than the expiration of the 10-day period, |
+|at which time the authority and duties of the Department with |
+|respect to the temporary custody of the child shall terminate.|||
+|||(m-1) The Department may place children under 18 years of |
+|age in a secure child care facility licensed by the Department |
+|that cares for children who are in need of secure living |
+|arrangements for their health, safety, and well-being after a |
+|determination is made by the facility director and the |
+|Director or the Director's designate prior to admission to the |
+|facility subject to Section 2-27.1 of the Juvenile Court Act |
+|of 1987. This subsection (m-1) does not apply to a child who is |
+|subject to placement in a correctional facility operated |
+|pursuant to Section 3-15-2 of the Unified Code of Corrections, |
+|unless the child is a youth in care who was placed in the care |
+|of the Department before being subject to placement in a |
+|correctional facility and a court of competent jurisdiction |
+|has ordered placement of the child in a secure care facility.|||
+|||(n) The Department may place children under 18 years of |
+|age in licensed child care facilities when in the opinion of |
+|the Department, appropriate services aimed at family |
+|preservation have been unsuccessful and cannot ensure the |
+|child's health and safety or are unavailable and such |
+|placement would be for their best interest. Payment for board, |
+|clothing, care, training and supervision of any child placed |
+|in a licensed child care facility may be made by the |
+|Department, by the parents or guardians of the estates of |
+|those children, or by both the Department and the parents or |
+|guardians, except that no payments shall be made by the |
+|Department for any child placed in a licensed child care |
+|facility for board, clothing, care, training and supervision |
+|of such a child that exceed the average per capita cost of |
+|maintaining and of caring for a child in institutions for |
+|dependent or neglected children operated by the Department. |
+|However, such restriction on payments does not apply in cases |
+|where children require specialized care and treatment for |
+|problems of severe emotional disturbance, physical disability, |
+|social adjustment, or any combination thereof and suitable |
+|facilities for the placement of such children are not |
+|available at payment rates within the limitations set forth in |
+|this Section. All reimbursements for services delivered shall |
+|be absolutely inalienable by assignment, sale, attachment, or |
+|garnishment or otherwise.|||
+|||(n-1) The Department shall provide or authorize child |
+|welfare services, aimed at assisting minors to achieve |
+|sustainable self-sufficiency as independent adults, for any |
+|minor eligible for the reinstatement of wardship pursuant to |
+|subsection (2) of Section 2-33 of the Juvenile Court Act of |
+|1987, whether or not such reinstatement is sought or allowed, |
+|provided that the minor consents to such services and has not |
+|yet attained the age of 21. The Department shall have |
+|responsibility for the development and delivery of services |
+|under this Section. An eligible youth may access services |
+|under this Section through the Department of Children and |
+|Family Services or by referral from the Department of Human |
+|Services. Youth participating in services under this Section |
+|shall cooperate with the assigned case manager in developing |
+|an agreement identifying the services to be provided and how |
+|the youth will increase skills to achieve self-sufficiency. A |
+|homeless shelter is not considered appr</t>
   </si>
 </sst>
 </file>
@@ -135,10 +721,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,15 +1043,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB205A22-D8E3-4C0D-AF22-147A8385C310}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -499,8 +1088,11 @@
       <c r="L1" t="s">
         <v>21</v>
       </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -533,6 +1125,9 @@
       </c>
       <c r="L2" t="s">
         <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
